--- a/results/TaskIdMap.xlsx
+++ b/results/TaskIdMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C7455F-4C35-4992-8537-E9905054E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B53C38-DC8E-40B2-B888-3D71F658B18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,19 +185,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>190000-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>08.08中午</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train-exp_BG-20220808_1452</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.08晚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190000-250000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10h？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000-350000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +585,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -756,21 +788,48 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/results/TaskIdMap.xlsx
+++ b/results/TaskIdMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B53C38-DC8E-40B2-B888-3D71F658B18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306764E-DD24-4404-A9E5-CADB19D0842E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>190000-250000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,6 +218,34 @@
   </si>
   <si>
     <t>12-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train-exp_BG-20220809_1452</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近22h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.09晚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>350000-472000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +601,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -759,19 +775,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -779,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -788,19 +804,19 @@
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -808,33 +824,57 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">

--- a/results/TaskIdMap.xlsx
+++ b/results/TaskIdMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A306764E-DD24-4404-A9E5-CADB19D0842E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0403B1-5122-4C8A-A3CB-478FB30019FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>16-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train-exp_BG-20220810_1527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46w-54.6w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.10晚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +625,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -881,6 +905,27 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">

--- a/results/TaskIdMap.xlsx
+++ b/results/TaskIdMap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0403B1-5122-4C8A-A3CB-478FB30019FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D7617-2174-4416-B70B-C934EF457E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,6 +270,62 @@
   </si>
   <si>
     <t>up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train-exp_BG-20220811_1455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫名中止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.7w-54.9w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train-exp_BG-20220812_0039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55w-65w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.12晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.11晚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -914,6 +970,12 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
@@ -931,10 +993,83 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
